--- a/Code/Results/Cases/Case_5_113/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_113/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.949690454012256</v>
+        <v>0.6194284934348104</v>
       </c>
       <c r="C2">
-        <v>0.535632691668269</v>
+        <v>0.1725593584472165</v>
       </c>
       <c r="D2">
-        <v>0.03668771612159816</v>
+        <v>0.0135231891998373</v>
       </c>
       <c r="E2">
-        <v>0.228765182542638</v>
+        <v>0.1282636622104505</v>
       </c>
       <c r="F2">
-        <v>0.5157489915470919</v>
+        <v>0.5034795799655143</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.1826919258339856</v>
+        <v>0.3408651183409077</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8864833804309384</v>
+        <v>0.3083193749590549</v>
       </c>
       <c r="N2">
-        <v>0.566012564360804</v>
+        <v>0.9311592783408642</v>
       </c>
       <c r="O2">
-        <v>1.410230770116357</v>
+        <v>1.612172864956676</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.698727569499226</v>
+        <v>0.5420733954247794</v>
       </c>
       <c r="C3">
-        <v>0.4703531030782813</v>
+        <v>0.1519890321154094</v>
       </c>
       <c r="D3">
-        <v>0.03251192333142683</v>
+        <v>0.0121326809356006</v>
       </c>
       <c r="E3">
-        <v>0.1997696672577334</v>
+        <v>0.1218239920400137</v>
       </c>
       <c r="F3">
-        <v>0.4646816732662913</v>
+        <v>0.4948761282576726</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.1783815677034148</v>
+        <v>0.3436564154521058</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.767612170460005</v>
+        <v>0.2744500294856138</v>
       </c>
       <c r="N3">
-        <v>0.5858457231618104</v>
+        <v>0.9400192022937546</v>
       </c>
       <c r="O3">
-        <v>1.287787709592493</v>
+        <v>1.596948262432619</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.544742553767065</v>
+        <v>0.4944770899284379</v>
       </c>
       <c r="C4">
-        <v>0.4302870239952199</v>
+        <v>0.1392938856783985</v>
       </c>
       <c r="D4">
-        <v>0.02994070095278545</v>
+        <v>0.01127379038398857</v>
       </c>
       <c r="E4">
-        <v>0.1824440703655057</v>
+        <v>0.1179836283754412</v>
       </c>
       <c r="F4">
-        <v>0.4343608126776815</v>
+        <v>0.4899921034708825</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.1763535686861246</v>
+        <v>0.3456378482473887</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6951395815335744</v>
+        <v>0.2537132601274692</v>
       </c>
       <c r="N4">
-        <v>0.5989450186498289</v>
+        <v>0.9458704867437717</v>
       </c>
       <c r="O4">
-        <v>1.215925620330069</v>
+        <v>1.58889822309817</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.481998614783009</v>
+        <v>0.4750571129636683</v>
       </c>
       <c r="C5">
-        <v>0.4139574726147544</v>
+        <v>0.1341043972218756</v>
       </c>
       <c r="D5">
-        <v>0.02889093022695022</v>
+        <v>0.01092252354681023</v>
       </c>
       <c r="E5">
-        <v>0.1754915547377678</v>
+        <v>0.1164469638191363</v>
       </c>
       <c r="F5">
-        <v>0.4222454952809116</v>
+        <v>0.4881018492000919</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.1756738515242056</v>
+        <v>0.3465124334721033</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6657151260926213</v>
+        <v>0.2452777522452934</v>
       </c>
       <c r="N5">
-        <v>0.6045070704212918</v>
+        <v>0.9483583729531588</v>
       </c>
       <c r="O5">
-        <v>1.187415966875562</v>
+        <v>1.5859434156595</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.47157982477637</v>
+        <v>0.4718310159390171</v>
       </c>
       <c r="C6">
-        <v>0.4112456483158269</v>
+        <v>0.1332417193912647</v>
       </c>
       <c r="D6">
-        <v>0.02871649307796531</v>
+        <v>0.01086412043510165</v>
       </c>
       <c r="E6">
-        <v>0.174343259690005</v>
+        <v>0.1161935045139018</v>
       </c>
       <c r="F6">
-        <v>0.4202477416570716</v>
+        <v>0.4877940097165734</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.1755695959167554</v>
+        <v>0.3466617082069732</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6608352010515119</v>
+        <v>0.2438779428478384</v>
       </c>
       <c r="N6">
-        <v>0.6054439536632046</v>
+        <v>0.9487777329735039</v>
       </c>
       <c r="O6">
-        <v>1.182727066237874</v>
+        <v>1.585472419308616</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.543896368420775</v>
+        <v>0.4942152815103213</v>
       </c>
       <c r="C7">
-        <v>0.4300668152730509</v>
+        <v>0.1392239633940733</v>
       </c>
       <c r="D7">
-        <v>0.02992655157020607</v>
+        <v>0.01126905815489465</v>
       </c>
       <c r="E7">
-        <v>0.1823498855604484</v>
+        <v>0.1179627900721201</v>
       </c>
       <c r="F7">
-        <v>0.434196471800206</v>
+        <v>0.4899662060916228</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.1763438191177435</v>
+        <v>0.3456493715760871</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6947423393712455</v>
+        <v>0.2535994355824798</v>
       </c>
       <c r="N7">
-        <v>0.5990191334871398</v>
+        <v>0.9459036203849251</v>
       </c>
       <c r="O7">
-        <v>1.215538068945762</v>
+        <v>1.588857055957902</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.863123224950556</v>
+        <v>0.5927778029784179</v>
       </c>
       <c r="C8">
-        <v>0.5131170688491693</v>
+        <v>0.1654802915251992</v>
       </c>
       <c r="D8">
-        <v>0.03524931694541067</v>
+        <v>0.01304481692856285</v>
       </c>
       <c r="E8">
-        <v>0.2186606998280851</v>
+        <v>0.1260195259336214</v>
       </c>
       <c r="F8">
-        <v>0.4979141626327745</v>
+        <v>0.5004302778597491</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.1810718672237748</v>
+        <v>0.3417719362567517</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8453768264308863</v>
+        <v>0.2966289509915541</v>
       </c>
       <c r="N8">
-        <v>0.5726549372413814</v>
+        <v>0.9341288392769513</v>
       </c>
       <c r="O8">
-        <v>1.367286688621391</v>
+        <v>1.606653590733885</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.491010451773093</v>
+        <v>0.7852290036540808</v>
       </c>
       <c r="C9">
-        <v>0.676416762863397</v>
+        <v>0.2164475552764031</v>
       </c>
       <c r="D9">
-        <v>0.0456373777029242</v>
+        <v>0.01648562158352718</v>
       </c>
       <c r="E9">
-        <v>0.2942564550334339</v>
+        <v>0.1427327368123557</v>
       </c>
       <c r="F9">
-        <v>0.6320119980904906</v>
+        <v>0.5241227882272312</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.1956740062429851</v>
+        <v>0.3362980872619588</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.145870254365533</v>
+        <v>0.3814824730978614</v>
       </c>
       <c r="N9">
-        <v>0.5286390287246121</v>
+        <v>0.9143006215770342</v>
       </c>
       <c r="O9">
-        <v>1.694067185300128</v>
+        <v>1.651888208096381</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.955056207663802</v>
+        <v>0.9260818240021536</v>
       </c>
       <c r="C10">
-        <v>0.7971408396389279</v>
+        <v>0.2535701757806237</v>
       </c>
       <c r="D10">
-        <v>0.05325158252463069</v>
+        <v>0.01898735174653154</v>
       </c>
       <c r="E10">
-        <v>0.3533776329486784</v>
+        <v>0.1555876722085117</v>
       </c>
       <c r="F10">
-        <v>0.7375075878392323</v>
+        <v>0.5434807257051233</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.2102770481737899</v>
+        <v>0.3335844847411025</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.371289656668296</v>
+        <v>0.4441237877433935</v>
       </c>
       <c r="N10">
-        <v>0.501533703067139</v>
+        <v>0.9017203083722336</v>
       </c>
       <c r="O10">
-        <v>1.956233003518662</v>
+        <v>1.691480876081044</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.167143686454949</v>
+        <v>0.9900352928331131</v>
       </c>
       <c r="C11">
-        <v>0.8523414654611656</v>
+        <v>0.270387185974954</v>
       </c>
       <c r="D11">
-        <v>0.05671467283386988</v>
+        <v>0.02011956918151725</v>
       </c>
       <c r="E11">
-        <v>0.3812723216782885</v>
+        <v>0.1615648086037282</v>
       </c>
       <c r="F11">
-        <v>0.7873500522985637</v>
+        <v>0.5527146132145901</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.2179114797752639</v>
+        <v>0.3326361203144046</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.475222630389254</v>
+        <v>0.4726887606741883</v>
       </c>
       <c r="N11">
-        <v>0.4904707180177397</v>
+        <v>0.8964286139695901</v>
       </c>
       <c r="O11">
-        <v>2.081322355819964</v>
+        <v>1.710886183006863</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.247632400132829</v>
+        <v>1.014234513232168</v>
       </c>
       <c r="C12">
-        <v>0.8732956944172088</v>
+        <v>0.2767450911471485</v>
       </c>
       <c r="D12">
-        <v>0.05802622553721193</v>
+        <v>0.02054745069010266</v>
       </c>
       <c r="E12">
-        <v>0.391999429375673</v>
+        <v>0.1638470985906935</v>
       </c>
       <c r="F12">
-        <v>0.8065206008504759</v>
+        <v>0.556273021384456</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.2209585396690805</v>
+        <v>0.3323183020426015</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.514812895687115</v>
+        <v>0.4835155948606484</v>
       </c>
       <c r="N12">
-        <v>0.4864756693907211</v>
+        <v>0.894486790888962</v>
       </c>
       <c r="O12">
-        <v>2.129621503699155</v>
+        <v>1.718435883464963</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.230289336199121</v>
+        <v>1.00902362224042</v>
       </c>
       <c r="C13">
-        <v>0.8687803861366206</v>
+        <v>0.2753762656505501</v>
       </c>
       <c r="D13">
-        <v>0.05774374807202065</v>
+        <v>0.02045533762034779</v>
       </c>
       <c r="E13">
-        <v>0.3896815199563974</v>
+        <v>0.1633547225914782</v>
       </c>
       <c r="F13">
-        <v>0.8023782001419875</v>
+        <v>0.5555039055048923</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.2202951335959469</v>
+        <v>0.3323849100495835</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.506275492296183</v>
+        <v>0.4811834027971003</v>
       </c>
       <c r="N13">
-        <v>0.4873272336142946</v>
+        <v>0.8949022380919871</v>
       </c>
       <c r="O13">
-        <v>2.119176483145196</v>
+        <v>1.716800953093241</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.17376181731737</v>
+        <v>0.992026555977759</v>
       </c>
       <c r="C14">
-        <v>0.8540642990095932</v>
+        <v>0.2709104630305035</v>
       </c>
       <c r="D14">
-        <v>0.05682257044028916</v>
+        <v>0.02015478872827003</v>
       </c>
       <c r="E14">
-        <v>0.3821514384266393</v>
+        <v>0.1617521940440625</v>
       </c>
       <c r="F14">
-        <v>0.7889211067131896</v>
+        <v>0.5530061271349638</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.2181589543935303</v>
+        <v>0.3326091443882575</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.478474871573667</v>
+        <v>0.4735792926845761</v>
       </c>
       <c r="N14">
-        <v>0.4901380775705348</v>
+        <v>0.896267615734935</v>
       </c>
       <c r="O14">
-        <v>2.085276751455552</v>
+        <v>1.711503261737619</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.139161009925886</v>
+        <v>0.9816129098123838</v>
       </c>
       <c r="C15">
-        <v>0.8450572276892672</v>
+        <v>0.2681736777153105</v>
       </c>
       <c r="D15">
-        <v>0.0562583505725982</v>
+        <v>0.01997058047850686</v>
       </c>
       <c r="E15">
-        <v>0.3775610332365673</v>
+        <v>0.1607730657366986</v>
       </c>
       <c r="F15">
-        <v>0.7807177636376395</v>
+        <v>0.5514842117100898</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.2168712257399896</v>
+        <v>0.332751878815273</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.461477588070693</v>
+        <v>0.4689228435886861</v>
       </c>
       <c r="N15">
-        <v>0.4918854715949053</v>
+        <v>0.8971120275688733</v>
       </c>
       <c r="O15">
-        <v>2.064636234895119</v>
+        <v>1.708284516414636</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.941218513081083</v>
+        <v>0.9218997779911433</v>
       </c>
       <c r="C16">
-        <v>0.7935398965084346</v>
+        <v>0.2524697113040304</v>
       </c>
       <c r="D16">
-        <v>0.05302526913597916</v>
+        <v>0.01891323909203635</v>
       </c>
       <c r="E16">
-        <v>0.351576458232401</v>
+        <v>0.1551996789620276</v>
       </c>
       <c r="F16">
-        <v>0.7342900420939174</v>
+        <v>0.5428858970606569</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.209799201002113</v>
+        <v>0.3336522335804837</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.3645281254894</v>
+        <v>0.4422583870204164</v>
       </c>
       <c r="N16">
-        <v>0.5022832048854511</v>
+        <v>0.9020748111942041</v>
       </c>
       <c r="O16">
-        <v>1.948183140310363</v>
+        <v>1.690240822609553</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.820063790518532</v>
+        <v>0.8852358523267299</v>
       </c>
       <c r="C17">
-        <v>0.7620151204301919</v>
+        <v>0.242817679266949</v>
       </c>
       <c r="D17">
-        <v>0.05104188224591866</v>
+        <v>0.01826308211986571</v>
       </c>
       <c r="E17">
-        <v>0.3359057154356648</v>
+        <v>0.1518139155644107</v>
       </c>
       <c r="F17">
-        <v>0.7063030851307417</v>
+        <v>0.5377208449865236</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.2057239593674254</v>
+        <v>0.3342779621945091</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.305431296298011</v>
+        <v>0.4259182816419411</v>
       </c>
       <c r="N17">
-        <v>0.508994753419735</v>
+        <v>0.9052297649853287</v>
       </c>
       <c r="O17">
-        <v>1.878299289325213</v>
+        <v>1.67952932413553</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.750469895229344</v>
+        <v>0.8641363936358744</v>
       </c>
       <c r="C18">
-        <v>0.7439088365085524</v>
+        <v>0.237259486539358</v>
       </c>
       <c r="D18">
-        <v>0.04990101322301399</v>
+        <v>0.01788858162635165</v>
       </c>
       <c r="E18">
-        <v>0.3269851478471324</v>
+        <v>0.149878673607617</v>
       </c>
       <c r="F18">
-        <v>0.690378119006013</v>
+        <v>0.5347903038725121</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.2034724400156414</v>
+        <v>0.3346647805293301</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.271568893461989</v>
+        <v>0.4165263939940189</v>
       </c>
       <c r="N18">
-        <v>0.5129735780711826</v>
+        <v>0.9070849912036678</v>
       </c>
       <c r="O18">
-        <v>1.838646638669871</v>
+        <v>1.673499552609684</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.726921273958112</v>
+        <v>0.8569905669904756</v>
       </c>
       <c r="C19">
-        <v>0.7377825147612782</v>
+        <v>0.2353764515513319</v>
       </c>
       <c r="D19">
-        <v>0.04951471406285179</v>
+        <v>0.01776168896992658</v>
       </c>
       <c r="E19">
-        <v>0.3239801552454082</v>
+        <v>0.149225513954903</v>
       </c>
       <c r="F19">
-        <v>0.685014931521323</v>
+        <v>0.5338049813530859</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.2027255981489731</v>
+        <v>0.3348003681804173</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.260124769128083</v>
+        <v>0.4133475813612506</v>
       </c>
       <c r="N19">
-        <v>0.5143407437483916</v>
+        <v>0.907720107859852</v>
       </c>
       <c r="O19">
-        <v>1.825311443441535</v>
+        <v>1.67148048418062</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.832951256920126</v>
+        <v>0.8891399715774924</v>
       </c>
       <c r="C20">
-        <v>0.7653682309013448</v>
+        <v>0.2438458392066423</v>
       </c>
       <c r="D20">
-        <v>0.05125302343758165</v>
+        <v>0.01833234928201932</v>
       </c>
       <c r="E20">
-        <v>0.3375641449728448</v>
+        <v>0.1521730753886601</v>
       </c>
       <c r="F20">
-        <v>0.7092642928618176</v>
+        <v>0.538266505296491</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.2061481128506415</v>
+        <v>0.3342085653945226</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.311708719322823</v>
+        <v>0.4276570404212663</v>
       </c>
       <c r="N20">
-        <v>0.508267947080391</v>
+        <v>0.9048897146784398</v>
       </c>
       <c r="O20">
-        <v>1.885681732069457</v>
+        <v>1.680655996881626</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.190360269328778</v>
+        <v>0.9970195194483722</v>
       </c>
       <c r="C21">
-        <v>0.8583853009708093</v>
+        <v>0.2722224597319496</v>
       </c>
       <c r="D21">
-        <v>0.05709313632294766</v>
+        <v>0.0202430908969049</v>
       </c>
       <c r="E21">
-        <v>0.3843585851462024</v>
+        <v>0.1622223809726719</v>
       </c>
       <c r="F21">
-        <v>0.7928654894792544</v>
+        <v>0.5537381080496573</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.2187820536571508</v>
+        <v>0.3325421589150146</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.486633980289866</v>
+        <v>0.4758125358241756</v>
       </c>
       <c r="N21">
-        <v>0.4893070920357019</v>
+        <v>0.8958648875948754</v>
       </c>
       <c r="O21">
-        <v>2.095207897621748</v>
+        <v>1.713053851507169</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.424989902377945</v>
+        <v>1.067416269712794</v>
       </c>
       <c r="C22">
-        <v>0.9194797802925336</v>
+        <v>0.2907078952997892</v>
       </c>
       <c r="D22">
-        <v>0.06091102640682067</v>
+        <v>0.02148681906189864</v>
       </c>
       <c r="E22">
-        <v>0.4159080782568836</v>
+        <v>0.1689003481058577</v>
       </c>
       <c r="F22">
-        <v>0.8492463474637191</v>
+        <v>0.5642096319423615</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.2279557697450159</v>
+        <v>0.3316939123615619</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.60233415362417</v>
+        <v>0.5073426153060723</v>
       </c>
       <c r="N22">
-        <v>0.4780536346566251</v>
+        <v>0.8903281966029581</v>
       </c>
       <c r="O22">
-        <v>2.237617457137105</v>
+        <v>1.735401616727103</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.299656528054015</v>
+        <v>1.029854528956946</v>
       </c>
       <c r="C23">
-        <v>0.8868411793417579</v>
+        <v>0.2808474657772422</v>
       </c>
       <c r="D23">
-        <v>0.05887316337287274</v>
+        <v>0.02082348876317752</v>
       </c>
       <c r="E23">
-        <v>0.3989739142897051</v>
+        <v>0.1653260198407409</v>
       </c>
       <c r="F23">
-        <v>0.8189848415204466</v>
+        <v>0.5585877795687253</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.2229709695247131</v>
+        <v>0.3321245437193383</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.540445020856154</v>
+        <v>0.4905091542973423</v>
       </c>
       <c r="N23">
-        <v>0.483951428381765</v>
+        <v>0.8932501402443833</v>
       </c>
       <c r="O23">
-        <v>2.161077627526396</v>
+        <v>1.723366512656497</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.827124650301471</v>
+        <v>0.8873749842159668</v>
       </c>
       <c r="C24">
-        <v>0.7638522352006589</v>
+        <v>0.243381036462921</v>
       </c>
       <c r="D24">
-        <v>0.05115756837189167</v>
+        <v>0.01830103582821607</v>
       </c>
       <c r="E24">
-        <v>0.3368140940412943</v>
+        <v>0.1520106641236012</v>
       </c>
       <c r="F24">
-        <v>0.7079250188094903</v>
+        <v>0.5380196910645338</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.2059560694055662</v>
+        <v>0.3342398553511998</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.308870346423035</v>
+        <v>0.4268709405496764</v>
       </c>
       <c r="N24">
-        <v>0.5085961625229061</v>
+        <v>0.9050433224582832</v>
       </c>
       <c r="O24">
-        <v>1.882342502879339</v>
+        <v>1.680146228196975</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.320791892578768</v>
+        <v>0.7332583334279548</v>
       </c>
       <c r="C25">
-        <v>0.6321456547164814</v>
+        <v>0.2027159123616684</v>
       </c>
       <c r="D25">
-        <v>0.04283124060630428</v>
+        <v>0.0155593298639829</v>
       </c>
       <c r="E25">
-        <v>0.2732468543654321</v>
+        <v>0.1381116077358939</v>
       </c>
       <c r="F25">
-        <v>0.5946172535929861</v>
+        <v>0.5173719367047696</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.1910911063436274</v>
+        <v>0.3375499010877832</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.063881322494012</v>
+        <v>0.3584755759702958</v>
       </c>
       <c r="N25">
-        <v>0.5396695583959996</v>
+        <v>0.9193155903011743</v>
       </c>
       <c r="O25">
-        <v>1.602114702022646</v>
+        <v>1.638538550520082</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_113/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_113/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6194284934348104</v>
+        <v>1.949690454012483</v>
       </c>
       <c r="C2">
-        <v>0.1725593584472165</v>
+        <v>0.5356326916685532</v>
       </c>
       <c r="D2">
-        <v>0.0135231891998373</v>
+        <v>0.0366877161216479</v>
       </c>
       <c r="E2">
-        <v>0.1282636622104505</v>
+        <v>0.2287651825426167</v>
       </c>
       <c r="F2">
-        <v>0.5034795799655143</v>
+        <v>0.5157489915470919</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0.3408651183409077</v>
+        <v>0.1826919258339821</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3083193749590549</v>
+        <v>0.8864833804309384</v>
       </c>
       <c r="N2">
-        <v>0.9311592783408642</v>
+        <v>0.566012564360804</v>
       </c>
       <c r="O2">
-        <v>1.612172864956676</v>
+        <v>1.410230770116385</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5420733954247794</v>
+        <v>1.698727569499283</v>
       </c>
       <c r="C3">
-        <v>0.1519890321154094</v>
+        <v>0.4703531030779686</v>
       </c>
       <c r="D3">
-        <v>0.0121326809356006</v>
+        <v>0.03251192333135577</v>
       </c>
       <c r="E3">
-        <v>0.1218239920400137</v>
+        <v>0.1997696672577192</v>
       </c>
       <c r="F3">
-        <v>0.4948761282576726</v>
+        <v>0.4646816732662913</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.3436564154521058</v>
+        <v>0.1783815677034042</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2744500294856138</v>
+        <v>0.7676121704600121</v>
       </c>
       <c r="N3">
-        <v>0.9400192022937546</v>
+        <v>0.5858457231617464</v>
       </c>
       <c r="O3">
-        <v>1.596948262432619</v>
+        <v>1.287787709592465</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4944770899284379</v>
+        <v>1.544742553767094</v>
       </c>
       <c r="C4">
-        <v>0.1392938856783985</v>
+        <v>0.4302870239950494</v>
       </c>
       <c r="D4">
-        <v>0.01127379038398857</v>
+        <v>0.02994070095286361</v>
       </c>
       <c r="E4">
-        <v>0.1179836283754412</v>
+        <v>0.1824440703655128</v>
       </c>
       <c r="F4">
-        <v>0.4899921034708825</v>
+        <v>0.4343608126776672</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.3456378482473887</v>
+        <v>0.1763535686861069</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2537132601274692</v>
+        <v>0.6951395815335815</v>
       </c>
       <c r="N4">
-        <v>0.9458704867437717</v>
+        <v>0.5989450186498289</v>
       </c>
       <c r="O4">
-        <v>1.58889822309817</v>
+        <v>1.215925620330154</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4750571129636683</v>
+        <v>1.481998614783038</v>
       </c>
       <c r="C5">
-        <v>0.1341043972218756</v>
+        <v>0.4139574726146691</v>
       </c>
       <c r="D5">
-        <v>0.01092252354681023</v>
+        <v>0.0288909302270568</v>
       </c>
       <c r="E5">
-        <v>0.1164469638191363</v>
+        <v>0.1754915547377678</v>
       </c>
       <c r="F5">
-        <v>0.4881018492000919</v>
+        <v>0.4222454952809258</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.3465124334721033</v>
+        <v>0.1756738515242091</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2452777522452934</v>
+        <v>0.6657151260926213</v>
       </c>
       <c r="N5">
-        <v>0.9483583729531588</v>
+        <v>0.6045070704213416</v>
       </c>
       <c r="O5">
-        <v>1.5859434156595</v>
+        <v>1.187415966875562</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4718310159390171</v>
+        <v>1.471579824776228</v>
       </c>
       <c r="C6">
-        <v>0.1332417193912647</v>
+        <v>0.4112456483160258</v>
       </c>
       <c r="D6">
-        <v>0.01086412043510165</v>
+        <v>0.02871649307790136</v>
       </c>
       <c r="E6">
-        <v>0.1161935045139018</v>
+        <v>0.174343259690005</v>
       </c>
       <c r="F6">
-        <v>0.4877940097165734</v>
+        <v>0.4202477416570716</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.3466617082069732</v>
+        <v>0.1755695959167696</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2438779428478384</v>
+        <v>0.6608352010514906</v>
       </c>
       <c r="N6">
-        <v>0.9487777329735039</v>
+        <v>0.6054439536632543</v>
       </c>
       <c r="O6">
-        <v>1.585472419308616</v>
+        <v>1.182727066237845</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4942152815103213</v>
+        <v>1.543896368420889</v>
       </c>
       <c r="C7">
-        <v>0.1392239633940733</v>
+        <v>0.4300668152731077</v>
       </c>
       <c r="D7">
-        <v>0.01126905815489465</v>
+        <v>0.02992655156996449</v>
       </c>
       <c r="E7">
-        <v>0.1179627900721201</v>
+        <v>0.1823498855604626</v>
       </c>
       <c r="F7">
-        <v>0.4899662060916228</v>
+        <v>0.4341964718002203</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.3456493715760871</v>
+        <v>0.1763438191177435</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2535994355824798</v>
+        <v>0.6947423393712597</v>
       </c>
       <c r="N7">
-        <v>0.9459036203849251</v>
+        <v>0.5990191334871255</v>
       </c>
       <c r="O7">
-        <v>1.588857055957902</v>
+        <v>1.215538068945733</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5927778029784179</v>
+        <v>1.863123224950527</v>
       </c>
       <c r="C8">
-        <v>0.1654802915251992</v>
+        <v>0.5131170688493683</v>
       </c>
       <c r="D8">
-        <v>0.01304481692856285</v>
+        <v>0.03524931694548172</v>
       </c>
       <c r="E8">
-        <v>0.1260195259336214</v>
+        <v>0.2186606998280709</v>
       </c>
       <c r="F8">
-        <v>0.5004302778597491</v>
+        <v>0.4979141626327745</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.3417719362567517</v>
+        <v>0.1810718672237606</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2966289509915541</v>
+        <v>0.8453768264308934</v>
       </c>
       <c r="N8">
-        <v>0.9341288392769513</v>
+        <v>0.5726549372414311</v>
       </c>
       <c r="O8">
-        <v>1.606653590733885</v>
+        <v>1.367286688621363</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7852290036540808</v>
+        <v>2.491010451773207</v>
       </c>
       <c r="C9">
-        <v>0.2164475552764031</v>
+        <v>0.6764167628633402</v>
       </c>
       <c r="D9">
-        <v>0.01648562158352718</v>
+        <v>0.04563737770314447</v>
       </c>
       <c r="E9">
-        <v>0.1427327368123557</v>
+        <v>0.294256455033441</v>
       </c>
       <c r="F9">
-        <v>0.5241227882272312</v>
+        <v>0.6320119980905048</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.3362980872619588</v>
+        <v>0.1956740062429851</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3814824730978614</v>
+        <v>1.145870254365541</v>
       </c>
       <c r="N9">
-        <v>0.9143006215770342</v>
+        <v>0.5286390287246121</v>
       </c>
       <c r="O9">
-        <v>1.651888208096381</v>
+        <v>1.694067185300185</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9260818240021536</v>
+        <v>2.955056207663972</v>
       </c>
       <c r="C10">
-        <v>0.2535701757806237</v>
+        <v>0.7971408396392974</v>
       </c>
       <c r="D10">
-        <v>0.01898735174653154</v>
+        <v>0.05325158252455964</v>
       </c>
       <c r="E10">
-        <v>0.1555876722085117</v>
+        <v>0.3533776329486429</v>
       </c>
       <c r="F10">
-        <v>0.5434807257051233</v>
+        <v>0.7375075878392465</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.3335844847411025</v>
+        <v>0.2102770481737899</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4441237877433935</v>
+        <v>1.371289656668296</v>
       </c>
       <c r="N10">
-        <v>0.9017203083722336</v>
+        <v>0.5015337030670821</v>
       </c>
       <c r="O10">
-        <v>1.691480876081044</v>
+        <v>1.95623300351869</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9900352928331131</v>
+        <v>3.167143686454892</v>
       </c>
       <c r="C11">
-        <v>0.270387185974954</v>
+        <v>0.8523414654607961</v>
       </c>
       <c r="D11">
-        <v>0.02011956918151725</v>
+        <v>0.05671467283398357</v>
       </c>
       <c r="E11">
-        <v>0.1615648086037282</v>
+        <v>0.3812723216782885</v>
       </c>
       <c r="F11">
-        <v>0.5527146132145901</v>
+        <v>0.7873500522985637</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.3326361203144046</v>
+        <v>0.2179114797752639</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4726887606741883</v>
+        <v>1.47522263038924</v>
       </c>
       <c r="N11">
-        <v>0.8964286139695901</v>
+        <v>0.4904707180177326</v>
       </c>
       <c r="O11">
-        <v>1.710886183006863</v>
+        <v>2.081322355819935</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.014234513232168</v>
+        <v>3.247632400132829</v>
       </c>
       <c r="C12">
-        <v>0.2767450911471485</v>
+        <v>0.8732956944172372</v>
       </c>
       <c r="D12">
-        <v>0.02054745069010266</v>
+        <v>0.05802622553719772</v>
       </c>
       <c r="E12">
-        <v>0.1638470985906935</v>
+        <v>0.3919994293756872</v>
       </c>
       <c r="F12">
-        <v>0.556273021384456</v>
+        <v>0.8065206008504475</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.3323183020426015</v>
+        <v>0.2209585396690912</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4835155948606484</v>
+        <v>1.514812895687143</v>
       </c>
       <c r="N12">
-        <v>0.894486790888962</v>
+        <v>0.4864756693907211</v>
       </c>
       <c r="O12">
-        <v>1.718435883464963</v>
+        <v>2.129621503699155</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.00902362224042</v>
+        <v>3.230289336199178</v>
       </c>
       <c r="C13">
-        <v>0.2753762656505501</v>
+        <v>0.86878038613645</v>
       </c>
       <c r="D13">
-        <v>0.02045533762034779</v>
+        <v>0.0577437480719496</v>
       </c>
       <c r="E13">
-        <v>0.1633547225914782</v>
+        <v>0.3896815199564401</v>
       </c>
       <c r="F13">
-        <v>0.5555039055048923</v>
+        <v>0.8023782001419875</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.3323849100495835</v>
+        <v>0.2202951335959646</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4811834027971003</v>
+        <v>1.506275492296169</v>
       </c>
       <c r="N13">
-        <v>0.8949022380919871</v>
+        <v>0.4873272336142307</v>
       </c>
       <c r="O13">
-        <v>1.716800953093241</v>
+        <v>2.119176483145225</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.992026555977759</v>
+        <v>3.173761817317427</v>
       </c>
       <c r="C14">
-        <v>0.2709104630305035</v>
+        <v>0.8540642990092806</v>
       </c>
       <c r="D14">
-        <v>0.02015478872827003</v>
+        <v>0.05682257044027494</v>
       </c>
       <c r="E14">
-        <v>0.1617521940440625</v>
+        <v>0.3821514384266322</v>
       </c>
       <c r="F14">
-        <v>0.5530061271349638</v>
+        <v>0.7889211067132038</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.3326091443882575</v>
+        <v>0.2181589543935374</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4735792926845761</v>
+        <v>1.478474871573681</v>
       </c>
       <c r="N14">
-        <v>0.896267615734935</v>
+        <v>0.4901380775705206</v>
       </c>
       <c r="O14">
-        <v>1.711503261737619</v>
+        <v>2.085276751455609</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9816129098123838</v>
+        <v>3.139161009925886</v>
       </c>
       <c r="C15">
-        <v>0.2681736777153105</v>
+        <v>0.8450572276890966</v>
       </c>
       <c r="D15">
-        <v>0.01997058047850686</v>
+        <v>0.05625835057265505</v>
       </c>
       <c r="E15">
-        <v>0.1607730657366986</v>
+        <v>0.3775610332365389</v>
       </c>
       <c r="F15">
-        <v>0.5514842117100898</v>
+        <v>0.7807177636376252</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.332751878815273</v>
+        <v>0.2168712257400003</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4689228435886861</v>
+        <v>1.461477588070679</v>
       </c>
       <c r="N15">
-        <v>0.8971120275688733</v>
+        <v>0.4918854715949621</v>
       </c>
       <c r="O15">
-        <v>1.708284516414636</v>
+        <v>2.064636234895175</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9218997779911433</v>
+        <v>2.941218513081083</v>
       </c>
       <c r="C16">
-        <v>0.2524697113040304</v>
+        <v>0.7935398965086335</v>
       </c>
       <c r="D16">
-        <v>0.01891323909203635</v>
+        <v>0.05302526913597916</v>
       </c>
       <c r="E16">
-        <v>0.1551996789620276</v>
+        <v>0.3515764582323868</v>
       </c>
       <c r="F16">
-        <v>0.5428858970606569</v>
+        <v>0.7342900420939031</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.3336522335804837</v>
+        <v>0.2097992010021024</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4422583870204164</v>
+        <v>1.3645281254894</v>
       </c>
       <c r="N16">
-        <v>0.9020748111942041</v>
+        <v>0.5022832048854582</v>
       </c>
       <c r="O16">
-        <v>1.690240822609553</v>
+        <v>1.948183140310334</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8852358523267299</v>
+        <v>2.820063790518532</v>
       </c>
       <c r="C17">
-        <v>0.242817679266949</v>
+        <v>0.7620151204300782</v>
       </c>
       <c r="D17">
-        <v>0.01826308211986571</v>
+        <v>0.05104188224591155</v>
       </c>
       <c r="E17">
-        <v>0.1518139155644107</v>
+        <v>0.3359057154356648</v>
       </c>
       <c r="F17">
-        <v>0.5377208449865236</v>
+        <v>0.7063030851307417</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.3342779621945091</v>
+        <v>0.2057239593674289</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4259182816419411</v>
+        <v>1.305431296297996</v>
       </c>
       <c r="N17">
-        <v>0.9052297649853287</v>
+        <v>0.5089947534197279</v>
       </c>
       <c r="O17">
-        <v>1.67952932413553</v>
+        <v>1.878299289325156</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8641363936358744</v>
+        <v>2.750469895229116</v>
       </c>
       <c r="C18">
-        <v>0.237259486539358</v>
+        <v>0.7439088365086377</v>
       </c>
       <c r="D18">
-        <v>0.01788858162635165</v>
+        <v>0.04990101322312768</v>
       </c>
       <c r="E18">
-        <v>0.149878673607617</v>
+        <v>0.3269851478471395</v>
       </c>
       <c r="F18">
-        <v>0.5347903038725121</v>
+        <v>0.6903781190060414</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.3346647805293301</v>
+        <v>0.2034724400156414</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4165263939940189</v>
+        <v>1.271568893462018</v>
       </c>
       <c r="N18">
-        <v>0.9070849912036678</v>
+        <v>0.5129735780711115</v>
       </c>
       <c r="O18">
-        <v>1.673499552609684</v>
+        <v>1.838646638669843</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8569905669904756</v>
+        <v>2.726921273957885</v>
       </c>
       <c r="C19">
-        <v>0.2353764515513319</v>
+        <v>0.7377825147612782</v>
       </c>
       <c r="D19">
-        <v>0.01776168896992658</v>
+        <v>0.04951471406307917</v>
       </c>
       <c r="E19">
-        <v>0.149225513954903</v>
+        <v>0.3239801552453656</v>
       </c>
       <c r="F19">
-        <v>0.5338049813530859</v>
+        <v>0.6850149315213372</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.3348003681804173</v>
+        <v>0.2027255981489766</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4133475813612506</v>
+        <v>1.260124769128097</v>
       </c>
       <c r="N19">
-        <v>0.907720107859852</v>
+        <v>0.5143407437483347</v>
       </c>
       <c r="O19">
-        <v>1.67148048418062</v>
+        <v>1.825311443441535</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8891399715774924</v>
+        <v>2.832951256920239</v>
       </c>
       <c r="C20">
-        <v>0.2438458392066423</v>
+        <v>0.7653682309013448</v>
       </c>
       <c r="D20">
-        <v>0.01833234928201932</v>
+        <v>0.05125302343758165</v>
       </c>
       <c r="E20">
-        <v>0.1521730753886601</v>
+        <v>0.3375641449728661</v>
       </c>
       <c r="F20">
-        <v>0.538266505296491</v>
+        <v>0.7092642928618034</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.3342085653945226</v>
+        <v>0.2061481128506415</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4276570404212663</v>
+        <v>1.311708719322809</v>
       </c>
       <c r="N20">
-        <v>0.9048897146784398</v>
+        <v>0.508267947080455</v>
       </c>
       <c r="O20">
-        <v>1.680655996881626</v>
+        <v>1.885681732069401</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9970195194483722</v>
+        <v>3.190360269328778</v>
       </c>
       <c r="C21">
-        <v>0.2722224597319496</v>
+        <v>0.8583853009707525</v>
       </c>
       <c r="D21">
-        <v>0.0202430908969049</v>
+        <v>0.05709313632295476</v>
       </c>
       <c r="E21">
-        <v>0.1622223809726719</v>
+        <v>0.3843585851462024</v>
       </c>
       <c r="F21">
-        <v>0.5537381080496573</v>
+        <v>0.7928654894792544</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.3325421589150146</v>
+        <v>0.2187820536571543</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4758125358241756</v>
+        <v>1.486633980289866</v>
       </c>
       <c r="N21">
-        <v>0.8958648875948754</v>
+        <v>0.4893070920356948</v>
       </c>
       <c r="O21">
-        <v>1.713053851507169</v>
+        <v>2.095207897621805</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.067416269712794</v>
+        <v>3.424989902377888</v>
       </c>
       <c r="C22">
-        <v>0.2907078952997892</v>
+        <v>0.9194797802925052</v>
       </c>
       <c r="D22">
-        <v>0.02148681906189864</v>
+        <v>0.06091102640681356</v>
       </c>
       <c r="E22">
-        <v>0.1689003481058577</v>
+        <v>0.4159080782568978</v>
       </c>
       <c r="F22">
-        <v>0.5642096319423615</v>
+        <v>0.8492463474637475</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.3316939123615619</v>
+        <v>0.227955769745023</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5073426153060723</v>
+        <v>1.60233415362417</v>
       </c>
       <c r="N22">
-        <v>0.8903281966029581</v>
+        <v>0.4780536346566251</v>
       </c>
       <c r="O22">
-        <v>1.735401616727103</v>
+        <v>2.237617457137162</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.029854528956946</v>
+        <v>3.299656528053902</v>
       </c>
       <c r="C23">
-        <v>0.2808474657772422</v>
+        <v>0.8868411793419</v>
       </c>
       <c r="D23">
-        <v>0.02082348876317752</v>
+        <v>0.0588731633728159</v>
       </c>
       <c r="E23">
-        <v>0.1653260198407409</v>
+        <v>0.3989739142897193</v>
       </c>
       <c r="F23">
-        <v>0.5585877795687253</v>
+        <v>0.8189848415204608</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.3321245437193383</v>
+        <v>0.2229709695247131</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4905091542973423</v>
+        <v>1.540445020856168</v>
       </c>
       <c r="N23">
-        <v>0.8932501402443833</v>
+        <v>0.4839514283817508</v>
       </c>
       <c r="O23">
-        <v>1.723366512656497</v>
+        <v>2.161077627526396</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8873749842159668</v>
+        <v>2.827124650301528</v>
       </c>
       <c r="C24">
-        <v>0.243381036462921</v>
+        <v>0.7638522352005737</v>
       </c>
       <c r="D24">
-        <v>0.01830103582821607</v>
+        <v>0.05115756837200536</v>
       </c>
       <c r="E24">
-        <v>0.1520106641236012</v>
+        <v>0.3368140940412729</v>
       </c>
       <c r="F24">
-        <v>0.5380196910645338</v>
+        <v>0.7079250188094761</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.3342398553511998</v>
+        <v>0.2059560694055627</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4268709405496764</v>
+        <v>1.308870346423049</v>
       </c>
       <c r="N24">
-        <v>0.9050433224582832</v>
+        <v>0.5085961625229487</v>
       </c>
       <c r="O24">
-        <v>1.680146228196975</v>
+        <v>1.882342502879339</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7332583334279548</v>
+        <v>2.320791892578939</v>
       </c>
       <c r="C25">
-        <v>0.2027159123616684</v>
+        <v>0.6321456547164814</v>
       </c>
       <c r="D25">
-        <v>0.0155593298639829</v>
+        <v>0.04283124060636823</v>
       </c>
       <c r="E25">
-        <v>0.1381116077358939</v>
+        <v>0.2732468543654534</v>
       </c>
       <c r="F25">
-        <v>0.5173719367047696</v>
+        <v>0.594617253592979</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.3375499010877832</v>
+        <v>0.1910911063436416</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3584755759702958</v>
+        <v>1.063881322494012</v>
       </c>
       <c r="N25">
-        <v>0.9193155903011743</v>
+        <v>0.5396695583960351</v>
       </c>
       <c r="O25">
-        <v>1.638538550520082</v>
+        <v>1.602114702022675</v>
       </c>
     </row>
   </sheetData>
